--- a/models/calculation engines/cbix2/outputs/capesize/Actual Price determination from CBIX price Trade Details.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/Actual Price determination from CBIX price Trade Details.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,100 +441,105 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Actual Price determination from CBIX price</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CM Data Source</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mine</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Price Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Price Basis</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Alumina</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LT Avail. Alumina</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Total Silica</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>LT R.Silica</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Quartz / HT Silica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mono-hydrate / HT Extble Alumina</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Moisture</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tonnage</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Exporting Port</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Importing Port</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Final Specs Price Type</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Final Specs Price Basis</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Old CBIX type Calc</t>
         </is>
@@ -542,29 +547,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>59.05647619047622</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Chalco Boffa</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -573,40 +580,43 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>60.14442857142858</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Alufer (Bel Air)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -615,40 +625,43 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>49.90752145800597</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Weipa</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -657,40 +670,43 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>58.46331159611906</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Gove</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -699,40 +715,43 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>60.58928571428572</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>AMR</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -741,40 +760,43 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>51.2482142857143</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Gujarat &amp; Maharashtra</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -783,40 +805,43 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>61.28190476190478</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>West Kalimantan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -825,40 +850,43 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>63.97404761904765</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Henan-Chine</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -867,40 +895,43 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>52.14880952380955</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="C10" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Kuantan</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -909,40 +940,43 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>49.37119047619048</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Aurum Xinfa-Fiji</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -951,40 +985,43 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>54.59878813000002</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="C12" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Dom. Rep.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -993,40 +1030,43 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>71.25960436208337</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="C13" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Discovery Bay</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1035,40 +1075,43 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>74.70857142857143</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="C14" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Awaso</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1077,40 +1120,43 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>64.94595238095239</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="C15" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>CBG</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1119,40 +1165,43 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>70.22619047619048</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>AMC</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1161,40 +1210,43 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>61.62260952380954</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="C17" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>GAC</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1203,40 +1255,43 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>67.72219887389288</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="C18" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Solomon Islands</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1245,40 +1300,43 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>41.02857142857145</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Metallica</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1287,40 +1345,43 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>46.23400549255955</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C20" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Aurukun</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1329,40 +1390,43 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>52.08320155621775</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="C21" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Metro LT</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1371,40 +1435,43 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>66.40738095238099</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="C22" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>MRN</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1413,40 +1480,43 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>66.98280952380954</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="C23" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Juruti</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1455,40 +1525,43 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>61.81380952380956</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="C24" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Mirai</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1497,40 +1570,43 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>51.64946621366406</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="C25" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Metro BH1</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1539,40 +1615,43 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>53.18817803562502</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="C26" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Amrun</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1581,40 +1660,43 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>59.47347619047623</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="C27" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Rondon do Para</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1623,40 +1705,43 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>48.44614285714288</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="C28" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Huntly</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1665,40 +1750,43 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>69.80150454495116</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="C29" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Vietnam Others</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1707,40 +1795,43 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>60.58928571428572</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="C30" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>SMB Malapouya</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1749,40 +1840,43 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>60.58928571428572</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="C31" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Rundi</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1791,40 +1885,43 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>46.45480454194409</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="C32" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Metro Blend</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1833,40 +1930,43 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>55.04312502502142</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="C33" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Seydisehir</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1875,40 +1975,43 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>53.18817803562502</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="C34" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Amrun HT</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1917,38 +2020,41 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Metro BH1 Xinfa</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1957,40 +2063,43 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>69.44285714285715</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="C36" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Dian Dian</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1999,40 +2108,43 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>57.47047619047622</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="C37" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Dynamic</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2041,40 +2153,43 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>63.97404761904765</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="C38" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>SMB Santou-Houda</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -2083,40 +2198,43 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>62.67333333333336</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="C39" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>GDM</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2125,40 +2243,43 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>62.28166666666668</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="C40" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Ashapura Guinea</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2167,40 +2288,43 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>57.20452380952383</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="C41" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>SMB Kaboye</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2209,40 +2333,43 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>60.58928571428572</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="C42" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>SMB Dabiss S</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2251,40 +2378,43 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>63.97404761904763</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="C43" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>SMB SH no rail capital</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2293,40 +2423,43 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>62.28166666666668</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="C44" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>AGB2A</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2335,40 +2468,43 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>59.05647619047623</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+      <c r="C45" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>SPIC</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2377,40 +2513,43 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>64.64614285714289</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>47664</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+      <c r="C46" s="2" t="n">
+        <v>47664</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Mokanji</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>dmt</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2419,14 +2558,15 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Qingdao</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
